--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
@@ -72,21 +72,6 @@
     <t>44444449P</t>
   </si>
   <si>
-    <t>44444410P</t>
-  </si>
-  <si>
-    <t>44444411P</t>
-  </si>
-  <si>
-    <t>44444412P</t>
-  </si>
-  <si>
-    <t>44444413P</t>
-  </si>
-  <si>
-    <t>44444414P</t>
-  </si>
-  <si>
     <t>Rebecca García</t>
   </si>
   <si>
@@ -96,21 +81,6 @@
     <t>Miguel Pérez</t>
   </si>
   <si>
-    <t>Ryan Williams</t>
-  </si>
-  <si>
-    <t>Gloria Jiménez</t>
-  </si>
-  <si>
-    <t>Penelope Barrio</t>
-  </si>
-  <si>
-    <t>Erik Cobo</t>
-  </si>
-  <si>
-    <t>Enrique Lopez</t>
-  </si>
-  <si>
     <t>asda@asd.asd</t>
   </si>
   <si>
@@ -126,21 +96,6 @@
     <t>asdasda@asd.asd</t>
   </si>
   <si>
-    <t>asdasds@asd.asd</t>
-  </si>
-  <si>
-    <t>asdasdd@asd.asd</t>
-  </si>
-  <si>
-    <t>asdasdas@asd.asd</t>
-  </si>
-  <si>
-    <t>asdasdaa@asd.asd</t>
-  </si>
-  <si>
-    <t>asdasdad@asd.asd</t>
-  </si>
-  <si>
     <t>8.48</t>
   </si>
   <si>
@@ -157,21 +112,6 @@
   </si>
   <si>
     <t>9.54</t>
-  </si>
-  <si>
-    <t>7.34</t>
-  </si>
-  <si>
-    <t>5.67</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>7.45</t>
-  </si>
-  <si>
-    <t>6.79</t>
   </si>
   <si>
     <t>C/Cl</t>
@@ -522,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -569,22 +509,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>988888888</v>
@@ -598,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>988888889</v>
@@ -624,19 +564,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -647,19 +587,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>988888891</v>
@@ -670,22 +610,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>988888892</v>
@@ -696,166 +636,35 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8">
-        <v>988888894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9">
-        <v>988888895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>988888896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12">
-        <v>988888898</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -27,9 +27,6 @@
     <t>David Rivera</t>
   </si>
   <si>
-    <t>Ana García</t>
-  </si>
-  <si>
     <t>Miguel Fernández</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Ourense</t>
+  </si>
+  <si>
+    <t>Ana Pérez</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -489,42 +489,42 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>988888888</v>
@@ -532,25 +532,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>988888889</v>
@@ -558,48 +558,48 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>988888891</v>
@@ -607,25 +607,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>988888892</v>
@@ -633,25 +633,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -27,9 +27,6 @@
     <t>David Rivera</t>
   </si>
   <si>
-    <t>Miguel Fernández</t>
-  </si>
-  <si>
     <t>dni</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Ana Pérez</t>
+  </si>
+  <si>
+    <t>Miguel González</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -489,42 +489,42 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>988888888</v>
@@ -532,25 +532,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>988888889</v>
@@ -558,48 +558,48 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>988888891</v>
@@ -607,25 +607,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>988888892</v>
@@ -633,25 +633,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
